--- a/mcmaster_excel/Metric_18-8_Stainless_Steel_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Metric_18-8_Stainless_Steel_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,84 +434,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M1.6 × 0.35 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,7 +572,11 @@
           <t>$14.08</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -622,7 +634,11 @@
           <t>14.24</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -680,7 +696,11 @@
           <t>14.36</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -690,19 +710,59 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>90910A910</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>M1.8 × 0.35 mm</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -712,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -752,15 +812,19 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>90910A910</t>
+          <t>90910A911</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>M1.8 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -770,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -810,15 +874,19 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>90910A911</t>
+          <t>90910A912</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14.56</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>M1.8 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -828,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -838,17 +906,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -868,15 +936,19 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>90910A912</t>
+          <t>90910A920</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>14.76</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -886,19 +958,59 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>90910A921</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -908,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -948,15 +1060,19 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>90910A920</t>
+          <t>90910A922</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>14.96</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -966,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1006,15 +1122,19 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>90910A921</t>
+          <t>90910A923</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>15.12</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1024,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1034,12 +1154,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1064,15 +1184,19 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>90910A922</t>
+          <t>90910A571</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>15.36</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1082,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1122,15 +1246,19 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>90910A923</t>
+          <t>90910A930</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>17.32</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>M2.2 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1140,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1150,12 +1278,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1180,15 +1308,19 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>90910A571</t>
+          <t>90910A931</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>13.88</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>M2.2 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1198,19 +1330,59 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>T6</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>90910A932</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>M2.2 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1230,12 +1402,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1260,15 +1432,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>90910A930</t>
+          <t>90910A940</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>15.16</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1288,12 +1464,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1318,15 +1494,19 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>90910A931</t>
+          <t>90910A941</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>15.40</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1346,12 +1526,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1376,15 +1556,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>90910A932</t>
+          <t>90910A942</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>17.36</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1394,19 +1578,59 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>M2.5 × 0.45 mm</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>90910A950</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1416,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1426,7 +1650,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1436,7 +1660,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1456,15 +1680,19 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>90910A940</t>
+          <t>90910A951</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>16.36</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1474,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1484,7 +1712,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1494,7 +1722,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1514,15 +1742,19 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>90910A941</t>
+          <t>90910A952</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>16.64</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1532,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1542,17 +1774,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1562,7 +1794,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1572,15 +1804,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>90910A942</t>
+          <t>90910A572</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>17.32</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1590,19 +1826,59 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M2.6 × 0.45 mm</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>90991A111</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1612,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1622,17 +1898,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1642,7 +1918,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1652,15 +1928,19 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>90910A950</t>
+          <t>90991A112</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1670,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1680,17 +1960,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1700,7 +1980,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1710,15 +1990,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>90910A951</t>
+          <t>90991A113</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>19.56</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1728,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1738,45 +2022,49 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>90991A114</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>4.92</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>90910A952</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>20.24</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1786,19 +2074,59 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>90991A115</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1808,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1848,15 +2176,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>90910A572</t>
+          <t>90910A573</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1866,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1901,20 +2233,24 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>90991A111</t>
+          <t>90910A574</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1924,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1959,20 +2295,24 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>90991A112</t>
+          <t>90910A575</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1982,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2022,15 +2362,19 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>90991A113</t>
+          <t>90910A576</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2040,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2080,15 +2424,19 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>90991A114</t>
+          <t>90991A116</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2098,7 +2446,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2138,15 +2486,19 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>90991A115</t>
+          <t>90991A117</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2156,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2196,15 +2548,19 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>90910A573</t>
+          <t>90991A118</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>M3.5 × 0.6 mm</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2214,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2224,17 +2580,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2249,20 +2605,24 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>90910A574</t>
+          <t>90991A119</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2272,7 +2632,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2282,17 +2642,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2307,20 +2667,24 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>90910A575</t>
+          <t>90991A121</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2330,7 +2694,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2340,17 +2704,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2370,15 +2734,19 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>90910A576</t>
+          <t>90991A122</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>13.73</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2388,19 +2756,59 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>M3.5 × 0.6 mm</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>90991A123</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2410,7 +2818,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2420,17 +2828,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2450,15 +2858,19 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>90991A116</t>
+          <t>90991A124</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2468,7 +2880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2478,17 +2890,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2508,15 +2920,19 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>90991A117</t>
+          <t>90910A577</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2526,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2536,17 +2952,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T20</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2561,20 +2977,24 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>90991A118</t>
+          <t>90910A578</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2584,19 +3004,59 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>T20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>90910A579</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2606,7 +3066,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2641,20 +3101,24 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>90991A119</t>
+          <t>90910A580</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2674,7 +3138,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2694,25 +3158,29 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>ASME B18.3.4M</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>90991A121</t>
+          <t>90910A960</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>M4.5 × 0.75 mm</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2732,7 +3200,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2752,25 +3220,29 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>ASME B18.3.4M</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>90991A122</t>
+          <t>90910A961</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>M4.5 × 0.75 mm</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2790,7 +3262,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2810,25 +3282,29 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ISO 7380</t>
+          <t>ASME B18.3.4M</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>90991A123</t>
+          <t>90910A962</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>M4.5 × 0.75 mm</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2838,7 +3314,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2848,17 +3324,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2878,15 +3354,19 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>90991A124</t>
+          <t>90991A125</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2896,7 +3376,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2906,17 +3386,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2936,15 +3416,19 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>90910A577</t>
+          <t>90991A126</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -2954,7 +3438,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2964,17 +3448,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2989,20 +3473,24 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>90910A578</t>
+          <t>90991A127</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>6.67</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3012,7 +3500,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3022,17 +3510,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3047,20 +3535,24 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>90910A579</t>
+          <t>90991A128</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>13.73</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3070,7 +3562,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3080,17 +3572,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3105,20 +3597,24 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>90910A580</t>
+          <t>90991A129</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3128,19 +3624,59 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>M4.5 × 0.75 mm</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>90910A581</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3150,7 +3686,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3160,17 +3696,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3180,25 +3716,29 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ASME B18.3.4M</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>90910A960</t>
+          <t>90910A582</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3208,7 +3748,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3218,17 +3758,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3238,25 +3778,29 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ASME B18.3.4M</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>90910A961</t>
+          <t>90910A583</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>16.64</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3266,7 +3810,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3276,17 +3820,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>T20</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3296,7 +3840,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ASME B18.3.4M</t>
+          <t>ISO 7380</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3306,15 +3850,19 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>90910A962</t>
+          <t>90910A584</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>17.52</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3324,19 +3872,59 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>T30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>90991A131</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3346,7 +3934,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3356,17 +3944,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3381,20 +3969,24 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>90991A125</t>
+          <t>90991A132</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>13.32</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3404,7 +3996,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3414,17 +4006,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3439,20 +4031,24 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>90991A126</t>
+          <t>90991A133</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>11.32</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3462,7 +4058,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3472,17 +4068,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3497,20 +4093,24 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>90991A127</t>
+          <t>90991A134</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3520,7 +4120,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3530,17 +4130,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3555,20 +4155,24 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>90991A128</t>
+          <t>90991A135</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3578,7 +4182,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3588,17 +4192,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3613,20 +4217,24 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>90991A129</t>
+          <t>90910A585</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3636,7 +4244,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3646,17 +4254,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3671,20 +4279,24 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>90910A581</t>
+          <t>90910A586</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3694,7 +4306,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3704,17 +4316,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3729,20 +4341,24 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>90910A582</t>
+          <t>90910A587</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3752,7 +4368,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3762,17 +4378,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3792,15 +4408,19 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>90910A583</t>
+          <t>90910A588</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>10.61</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3810,19 +4430,59 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>T40</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>ISO 7380</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>90910A589</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3832,7 +4492,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3842,17 +4502,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3867,20 +4527,24 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>90910A584</t>
+          <t>90910A590</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>10.61</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3890,7 +4554,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3900,17 +4564,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3925,20 +4589,24 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>90991A131</t>
+          <t>90910A591</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>10.18</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -3948,7 +4616,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3958,17 +4626,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3983,20 +4651,24 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>90991A132</t>
+          <t>90910A592</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4006,7 +4678,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4016,17 +4688,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>17.50</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4041,20 +4713,24 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>90991A133</t>
+          <t>90991A211</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4064,7 +4740,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4074,17 +4750,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>17.50</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4099,20 +4775,24 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>90991A134</t>
+          <t>90991A212</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>10.96</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -4122,7 +4802,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4132,17 +4812,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>17.50</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>T30</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4157,703 +4837,25 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>90991A135</t>
+          <t>90991A213</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>90910A585</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>90910A586</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>T30</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>90910A587</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>90910A588</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>90910A589</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>90910A590</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>13.73</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>90910A591</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>90910A592</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>90991A211</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>10.60</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>90991A212</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>100,000</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>ISO 7380</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>90991A213</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>14.78</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
